--- a/Packages.xlsx
+++ b/Packages.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\StartUp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankpathak/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF6419-F097-D64A-874A-C3A8D2029067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>Package 1 (1 BHK)</t>
   </si>
@@ -311,13 +320,100 @@
   </si>
   <si>
     <t>Intelligent scenes</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Plugs(16Amp)</t>
+  </si>
+  <si>
+    <t>Plugs(6Amp)</t>
+  </si>
+  <si>
+    <t>Regulators</t>
+  </si>
+  <si>
+    <t>6s4,F</t>
+  </si>
+  <si>
+    <t>6s4,6s1,F, 16S P</t>
+  </si>
+  <si>
+    <t>6s4,6s3,F, (16 S P) X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16O </t>
+  </si>
+  <si>
+    <t>6O</t>
+  </si>
+  <si>
+    <t>Oakter</t>
+  </si>
+  <si>
+    <t>(6s4 F)X3,6s2, 16S P</t>
+  </si>
+  <si>
+    <t>6s4 F, 6s2</t>
+  </si>
+  <si>
+    <t>(6s4 F,(6s2)X2, 16S P</t>
+  </si>
+  <si>
+    <t>(6s4 F) X2,6s2, (16 S P) X2</t>
+  </si>
+  <si>
+    <t>(6s4 F)X3, 6s2 ,(16 S P) X3</t>
+  </si>
+  <si>
+    <t>(6s4 F)X3,6s2</t>
+  </si>
+  <si>
+    <t>(6s4 F)X2,(6s2)</t>
+  </si>
+  <si>
+    <t>(6s4 F)X4,6s2,F, (16S P)X2</t>
+  </si>
+  <si>
+    <t>(6s4 F)X4,6s2, (16S P)X4</t>
+  </si>
+  <si>
+    <t>Assistant/Hub</t>
+  </si>
+  <si>
+    <t>Smarteefii Only</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intern Cut</t>
+  </si>
+  <si>
+    <t>Electrician Fee</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Logistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +423,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -354,9 +464,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,22 +747,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -662,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -673,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -681,17 +792,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -702,7 +813,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -713,7 +824,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -727,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -738,17 +849,17 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -759,7 +870,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -776,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -787,7 +898,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -798,7 +909,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -819,7 +930,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -840,7 +951,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -858,7 +969,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -876,7 +987,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -894,7 +1005,10 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
       <c r="G25">
         <f>SUM(G20:G24)</f>
         <v>62200</v>
@@ -903,17 +1017,20 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
       <c r="G26">
         <v>52200</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -924,7 +1041,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -935,7 +1052,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -946,7 +1063,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -957,7 +1074,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -968,7 +1085,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -979,12 +1096,12 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -995,7 +1112,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1006,7 +1123,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -1024,20 +1141,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -1060,17 +1177,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1084,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1098,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1112,12 +1229,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1125,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2</v>
       </c>
@@ -1133,7 +1250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1141,12 +1258,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1154,7 +1271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1162,7 +1279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1170,12 +1287,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1183,7 +1300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2</v>
       </c>
@@ -1191,7 +1308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1205,24 +1322,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B4:AK45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="20" max="20" width="36.1640625" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>38</v>
       </c>
@@ -1250,18 +1373,81 @@
       <c r="M4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" t="s">
+        <v>118</v>
+      </c>
+      <c r="X5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1289,8 +1475,69 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8">
+        <f>+SUM(4600+2800)</f>
+        <v>7400</v>
+      </c>
+      <c r="V8">
+        <v>4500</v>
+      </c>
+      <c r="W8">
+        <f>SUM(U8:V8)</f>
+        <v>11900</v>
+      </c>
+      <c r="X8" s="2">
+        <f>0.1*W8</f>
+        <v>1190</v>
+      </c>
+      <c r="Y8">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="Z8">
+        <f>+SUM(W8:Y8)</f>
+        <v>15090</v>
+      </c>
+      <c r="AD8">
+        <f>+SUM(4600+2800)</f>
+        <v>7400</v>
+      </c>
+      <c r="AE8">
+        <v>4500</v>
+      </c>
+      <c r="AF8">
+        <f>SUM(AD8:AE8)</f>
+        <v>11900</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>0.1*AF8</f>
+        <v>1190</v>
+      </c>
+      <c r="AH8">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="AI8">
+        <f>+SUM(AF8:AH8)</f>
+        <v>15090</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1318,8 +1565,69 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9">
+        <f>+SUM(4600+5600+2800)</f>
+        <v>13000</v>
+      </c>
+      <c r="V9">
+        <v>4500</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ref="W9:W20" si="0">SUM(U9:V9)</f>
+        <v>17500</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" ref="X9:X20" si="1">0.1*W9</f>
+        <v>1750</v>
+      </c>
+      <c r="Y9">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z9:Z20" si="2">+SUM(W9:Y9)</f>
+        <v>21250</v>
+      </c>
+      <c r="AD9">
+        <f>+SUM(4600+5600+1250)</f>
+        <v>11450</v>
+      </c>
+      <c r="AE9">
+        <v>4500</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" ref="AF9:AF20" si="3">SUM(AD9:AE9)</f>
+        <v>15950</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" ref="AG9:AG20" si="4">0.1*AF9</f>
+        <v>1595</v>
+      </c>
+      <c r="AH9">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" ref="AI9:AI10" si="5">+SUM(AF9:AH9)</f>
+        <v>19545</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1347,13 +1655,92 @@
       <c r="M10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10">
+        <f>SUM(9200+2800+5600)</f>
+        <v>17600</v>
+      </c>
+      <c r="V10">
+        <v>10000</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>27600</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="1"/>
+        <v>2760</v>
+      </c>
+      <c r="Y10">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>32360</v>
+      </c>
+      <c r="AD10">
+        <f>SUM(9200+2800+2500)</f>
+        <v>14500</v>
+      </c>
+      <c r="AE10">
+        <v>10000</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="3"/>
+        <v>24500</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="4"/>
+        <v>2450</v>
+      </c>
+      <c r="AH10">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="5"/>
+        <v>28950</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="X11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1</v>
       </c>
@@ -1381,8 +1768,69 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>112</v>
+      </c>
+      <c r="U13">
+        <f>+SUM(9200+2800)</f>
+        <v>12000</v>
+      </c>
+      <c r="V13">
+        <v>4500</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="Y13">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="2"/>
+        <v>21150</v>
+      </c>
+      <c r="AD13">
+        <f>+SUM(9200+2800)</f>
+        <v>12000</v>
+      </c>
+      <c r="AE13">
+        <v>4500</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="4"/>
+        <v>1650</v>
+      </c>
+      <c r="AH13">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" ref="AI13:AI15" si="6">+SUM(AF13:AH13)</f>
+        <v>21150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2</v>
       </c>
@@ -1410,8 +1858,69 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U14">
+        <f>+SUM(13800+2800+2800)</f>
+        <v>19400</v>
+      </c>
+      <c r="V14">
+        <v>4500</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>23900</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="1"/>
+        <v>2390</v>
+      </c>
+      <c r="Y14">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="2"/>
+        <v>29290</v>
+      </c>
+      <c r="AD14">
+        <f>+SUM(13800+2800+1250)</f>
+        <v>17850</v>
+      </c>
+      <c r="AE14">
+        <v>4500</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="3"/>
+        <v>22350</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="4"/>
+        <v>2235</v>
+      </c>
+      <c r="AH14">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="6"/>
+        <v>27585</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1439,13 +1948,92 @@
       <c r="M15">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>6</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15">
+        <f>+SUM(13800+2800+8400)</f>
+        <v>25000</v>
+      </c>
+      <c r="V15">
+        <v>10000</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="Y15">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>41500</v>
+      </c>
+      <c r="AD15">
+        <f>+SUM(13800+2800+4750)</f>
+        <v>21350</v>
+      </c>
+      <c r="AE15">
+        <v>10000</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="3"/>
+        <v>31350</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="4"/>
+        <v>3135</v>
+      </c>
+      <c r="AH15">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="6"/>
+        <v>37485</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="X16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1473,8 +2061,69 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>111</v>
+      </c>
+      <c r="U18">
+        <f>+SUM(13800+2800)</f>
+        <v>16600</v>
+      </c>
+      <c r="V18">
+        <v>4500</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>21100</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="1"/>
+        <v>2110</v>
+      </c>
+      <c r="Y18">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="2"/>
+        <v>28210</v>
+      </c>
+      <c r="AD18">
+        <f>+SUM(13800+2800)</f>
+        <v>16600</v>
+      </c>
+      <c r="AE18">
+        <v>4500</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>21100</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="4"/>
+        <v>2110</v>
+      </c>
+      <c r="AH18">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" ref="AI18:AI20" si="7">+SUM(AF18:AH18)</f>
+        <v>28210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -1502,8 +2151,69 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>113</v>
+      </c>
+      <c r="U19">
+        <f>+SUM(18400+2800+5600)</f>
+        <v>26800</v>
+      </c>
+      <c r="V19">
+        <v>4500</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>31300</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="1"/>
+        <v>3130</v>
+      </c>
+      <c r="Y19">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="2"/>
+        <v>39430</v>
+      </c>
+      <c r="AD19">
+        <f>+SUM(18400+2800+2500)</f>
+        <v>23700</v>
+      </c>
+      <c r="AE19">
+        <v>4500</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="3"/>
+        <v>28200</v>
+      </c>
+      <c r="AG19" s="2">
+        <f t="shared" si="4"/>
+        <v>2820</v>
+      </c>
+      <c r="AH19">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="7"/>
+        <v>36020</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1531,13 +2241,74 @@
       <c r="M20">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s">
+        <v>114</v>
+      </c>
+      <c r="U20">
+        <f>+SUM(19400+2800+11200)</f>
+        <v>33400</v>
+      </c>
+      <c r="V20">
+        <v>10000</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>43400</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="1"/>
+        <v>4340</v>
+      </c>
+      <c r="Y20">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="2"/>
+        <v>52740</v>
+      </c>
+      <c r="AD20">
+        <f>+SUM(19400+2800+5000)</f>
+        <v>27200</v>
+      </c>
+      <c r="AE20">
+        <v>10000</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="3"/>
+        <v>37200</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="4"/>
+        <v>3720</v>
+      </c>
+      <c r="AH20">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="7"/>
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1</v>
       </c>
@@ -1565,8 +2336,27 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s">
+        <v>100</v>
+      </c>
+      <c r="U23">
+        <f>+SUM(5400+2600+3000)</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>2</v>
       </c>
@@ -1594,8 +2384,27 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s">
+        <v>101</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U25" si="8">+SUM(5400+2600+3000)</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>3</v>
       </c>
@@ -1623,68 +2432,103 @@
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="8"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="T29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="T30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>